--- a/teaching/traditional_assets/database/data/taiwan/taiwan_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_precious_metals.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.08890000000000001</v>
+        <v>-0.0371</v>
       </c>
       <c r="G2">
-        <v>-0.05314878892733564</v>
+        <v>0.008403575989782886</v>
       </c>
       <c r="H2">
-        <v>-0.05397923875432526</v>
+        <v>0.007356321839080459</v>
       </c>
       <c r="I2">
-        <v>-0.01709342560553633</v>
+        <v>-0.05261813537675607</v>
       </c>
       <c r="J2">
-        <v>-0.01706086669962103</v>
+        <v>-0.05261813537675607</v>
       </c>
       <c r="K2">
-        <v>0.524</v>
+        <v>-3.77</v>
       </c>
       <c r="L2">
-        <v>0.009065743944636679</v>
+        <v>-0.04814814814814815</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +627,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>7.71</v>
+        <v>3.48</v>
       </c>
       <c r="V2">
-        <v>0.1182515337423313</v>
+        <v>0.04793388429752066</v>
       </c>
       <c r="W2">
-        <v>0.009257950530035336</v>
+        <v>-0.06744186046511629</v>
       </c>
       <c r="X2">
-        <v>0.1017024136937137</v>
+        <v>0.07657097999753487</v>
       </c>
       <c r="Y2">
-        <v>-0.09244446316367839</v>
+        <v>-0.1440128404626512</v>
       </c>
       <c r="Z2">
-        <v>0.5918492729879171</v>
+        <v>0.9446254071661238</v>
       </c>
       <c r="AA2">
-        <v>-0.01009746155271447</v>
+        <v>-0.04970442755459042</v>
       </c>
       <c r="AB2">
-        <v>0.07561682265522389</v>
+        <v>0.05763883659941507</v>
       </c>
       <c r="AC2">
-        <v>-0.08571428420793836</v>
+        <v>-0.1073432641540055</v>
       </c>
       <c r="AD2">
-        <v>34.7</v>
+        <v>42</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>34.7</v>
+        <v>42</v>
       </c>
       <c r="AG2">
-        <v>26.99</v>
+        <v>38.52</v>
       </c>
       <c r="AH2">
-        <v>0.3473473473473473</v>
+        <v>0.3664921465968586</v>
       </c>
       <c r="AI2">
-        <v>0.3830022075055188</v>
+        <v>0.4276985743380855</v>
       </c>
       <c r="AJ2">
-        <v>0.2927649419676755</v>
+        <v>0.3466522678185746</v>
       </c>
       <c r="AK2">
-        <v>0.3256122572083484</v>
+        <v>0.4066722972972973</v>
       </c>
       <c r="AL2">
-        <v>0.538</v>
+        <v>0.505</v>
       </c>
       <c r="AM2">
-        <v>0.493</v>
+        <v>0.374</v>
       </c>
       <c r="AN2">
-        <v>43.97972116603295</v>
+        <v>-17.87234042553191</v>
       </c>
       <c r="AO2">
-        <v>-1.836431226765799</v>
+        <v>-8.158415841584159</v>
       </c>
       <c r="AP2">
-        <v>34.20785804816223</v>
+        <v>-16.39148936170213</v>
       </c>
       <c r="AQ2">
-        <v>-2.004056795131846</v>
+        <v>-11.01604278074866</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.08890000000000001</v>
+        <v>-0.0371</v>
       </c>
       <c r="G3">
-        <v>-0.05314878892733564</v>
+        <v>0.008403575989782886</v>
       </c>
       <c r="H3">
-        <v>-0.05397923875432526</v>
+        <v>0.007356321839080459</v>
       </c>
       <c r="I3">
-        <v>-0.01709342560553633</v>
+        <v>-0.05261813537675607</v>
       </c>
       <c r="J3">
-        <v>-0.01706086669962103</v>
+        <v>-0.05261813537675607</v>
       </c>
       <c r="K3">
-        <v>0.524</v>
+        <v>-3.77</v>
       </c>
       <c r="L3">
-        <v>0.009065743944636679</v>
+        <v>-0.04814814814814815</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +746,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +755,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>7.71</v>
+        <v>3.48</v>
       </c>
       <c r="V3">
-        <v>0.1182515337423313</v>
+        <v>0.04793388429752066</v>
       </c>
       <c r="W3">
-        <v>0.009257950530035336</v>
+        <v>-0.06744186046511629</v>
       </c>
       <c r="X3">
-        <v>0.1017024136937137</v>
+        <v>0.07657097999753487</v>
       </c>
       <c r="Y3">
-        <v>-0.09244446316367839</v>
+        <v>-0.1440128404626512</v>
       </c>
       <c r="Z3">
-        <v>0.5918492729879171</v>
+        <v>0.9446254071661238</v>
       </c>
       <c r="AA3">
-        <v>-0.01009746155271447</v>
+        <v>-0.04970442755459042</v>
       </c>
       <c r="AB3">
-        <v>0.07561682265522389</v>
+        <v>0.05763883659941507</v>
       </c>
       <c r="AC3">
-        <v>-0.08571428420793836</v>
+        <v>-0.1073432641540055</v>
       </c>
       <c r="AD3">
-        <v>34.7</v>
+        <v>42</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>34.7</v>
+        <v>42</v>
       </c>
       <c r="AG3">
-        <v>26.99</v>
+        <v>38.52</v>
       </c>
       <c r="AH3">
-        <v>0.3473473473473473</v>
+        <v>0.3664921465968586</v>
       </c>
       <c r="AI3">
-        <v>0.3830022075055188</v>
+        <v>0.4276985743380855</v>
       </c>
       <c r="AJ3">
-        <v>0.2927649419676755</v>
+        <v>0.3466522678185746</v>
       </c>
       <c r="AK3">
-        <v>0.3256122572083484</v>
+        <v>0.4066722972972973</v>
       </c>
       <c r="AL3">
-        <v>0.538</v>
+        <v>0.505</v>
       </c>
       <c r="AM3">
-        <v>0.493</v>
+        <v>0.374</v>
       </c>
       <c r="AN3">
-        <v>43.97972116603295</v>
+        <v>-17.87234042553191</v>
       </c>
       <c r="AO3">
-        <v>-1.836431226765799</v>
+        <v>-8.158415841584159</v>
       </c>
       <c r="AP3">
-        <v>34.20785804816223</v>
+        <v>-16.39148936170213</v>
       </c>
       <c r="AQ3">
-        <v>-2.004056795131846</v>
+        <v>-11.01604278074866</v>
       </c>
     </row>
   </sheetData>
